--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>133.3049417986237</v>
+        <v>173.08623179952</v>
       </c>
       <c r="R2">
-        <v>133.3049417986237</v>
+        <v>1557.77608619568</v>
       </c>
       <c r="S2">
-        <v>0.0114114063937846</v>
+        <v>0.012941591322916</v>
       </c>
       <c r="T2">
-        <v>0.0114114063937846</v>
+        <v>0.01525100631426895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>149.2971360412179</v>
+        <v>185.2271988858</v>
       </c>
       <c r="R3">
-        <v>149.2971360412179</v>
+        <v>1667.0447899722</v>
       </c>
       <c r="S3">
-        <v>0.01278039860943905</v>
+        <v>0.01384936678640636</v>
       </c>
       <c r="T3">
-        <v>0.01278039860943905</v>
+        <v>0.01632077346887808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>76.80933949646514</v>
+        <v>93.00862778183999</v>
       </c>
       <c r="R4">
-        <v>76.80933949646514</v>
+        <v>837.0776500365599</v>
       </c>
       <c r="S4">
-        <v>0.006575169502391127</v>
+        <v>0.006954219510954322</v>
       </c>
       <c r="T4">
-        <v>0.006575169502391127</v>
+        <v>0.008195193545060849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>91.38151506458375</v>
+        <v>106.26296879862</v>
       </c>
       <c r="R5">
-        <v>91.38151506458375</v>
+        <v>956.3667191875801</v>
       </c>
       <c r="S5">
-        <v>0.007822602757345651</v>
+        <v>0.007945241517213087</v>
       </c>
       <c r="T5">
-        <v>0.007822602757345651</v>
+        <v>0.009363062510932846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>180.3180438018599</v>
+        <v>211.95263815083</v>
       </c>
       <c r="R6">
-        <v>180.3180438018599</v>
+        <v>1271.71582890498</v>
       </c>
       <c r="S6">
-        <v>0.01543590545250529</v>
+        <v>0.01584761765418214</v>
       </c>
       <c r="T6">
-        <v>0.01543590545250529</v>
+        <v>0.01245040690279882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>1356.044264945535</v>
+        <v>1725.553783657831</v>
       </c>
       <c r="R7">
-        <v>1356.044264945535</v>
+        <v>15529.98405292048</v>
       </c>
       <c r="S7">
-        <v>0.1160825096689265</v>
+        <v>0.1290189961479824</v>
       </c>
       <c r="T7">
-        <v>0.1160825096689265</v>
+        <v>0.1520423165758077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>1518.72483022664</v>
+        <v>1846.591092490466</v>
       </c>
       <c r="R8">
-        <v>1518.72483022664</v>
+        <v>16619.3198324142</v>
       </c>
       <c r="S8">
-        <v>0.1300085803587714</v>
+        <v>0.1380689094163691</v>
       </c>
       <c r="T8">
-        <v>0.1300085803587714</v>
+        <v>0.1627071784893003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>781.3428588099913</v>
+        <v>927.2337141620176</v>
       </c>
       <c r="R9">
-        <v>781.3428588099913</v>
+        <v>8345.10342745816</v>
       </c>
       <c r="S9">
-        <v>0.06688589916067411</v>
+        <v>0.0693289100164443</v>
       </c>
       <c r="T9">
-        <v>0.06688589916067411</v>
+        <v>0.08170058983008721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>929.5782868466937</v>
+        <v>1059.370615252376</v>
       </c>
       <c r="R10">
-        <v>929.5782868466937</v>
+        <v>9534.335537271381</v>
       </c>
       <c r="S10">
-        <v>0.07957541155578689</v>
+        <v>0.07920873555085593</v>
       </c>
       <c r="T10">
-        <v>0.07957541155578689</v>
+        <v>0.0933434610852148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>1834.284954965071</v>
+        <v>2113.02581906713</v>
       </c>
       <c r="R11">
-        <v>1834.284954965071</v>
+        <v>12678.15491440278</v>
       </c>
       <c r="S11">
-        <v>0.1570217186301448</v>
+        <v>0.1579901319754335</v>
       </c>
       <c r="T11">
-        <v>0.1570217186301448</v>
+        <v>0.1241222165151074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>163.1239993360274</v>
+        <v>194.2790416424809</v>
       </c>
       <c r="R12">
-        <v>163.1239993360274</v>
+        <v>1748.511374782328</v>
       </c>
       <c r="S12">
-        <v>0.01396403031940769</v>
+        <v>0.01452616960577761</v>
       </c>
       <c r="T12">
-        <v>0.01396403031940769</v>
+        <v>0.0171183511248398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>182.6934965190455</v>
+        <v>207.9065579712633</v>
       </c>
       <c r="R13">
-        <v>182.6934965190455</v>
+        <v>1871.15902174137</v>
       </c>
       <c r="S13">
-        <v>0.01563925317509741</v>
+        <v>0.01554509378732511</v>
       </c>
       <c r="T13">
-        <v>0.01563925317509741</v>
+        <v>0.01831910138335135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>93.99086392423185</v>
+        <v>104.3966748947862</v>
       </c>
       <c r="R14">
-        <v>93.99086392423185</v>
+        <v>939.5700740530758</v>
       </c>
       <c r="S14">
-        <v>0.008045972872953099</v>
+        <v>0.007805699436131548</v>
       </c>
       <c r="T14">
-        <v>0.008045972872953099</v>
+        <v>0.009198619274658461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>111.8226976554161</v>
+        <v>119.2738875047715</v>
       </c>
       <c r="R15">
-        <v>111.8226976554161</v>
+        <v>1073.464987542943</v>
       </c>
       <c r="S15">
-        <v>0.009572445175535366</v>
+        <v>0.008918062930447885</v>
       </c>
       <c r="T15">
-        <v>0.009572445175535366</v>
+        <v>0.0105094830048043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>220.6534886144186</v>
+        <v>237.9042803429555</v>
       </c>
       <c r="R16">
-        <v>220.6534886144186</v>
+        <v>1427.425682057733</v>
       </c>
       <c r="S16">
-        <v>0.01888877184005081</v>
+        <v>0.01778801201089818</v>
       </c>
       <c r="T16">
-        <v>0.01888877184005081</v>
+        <v>0.01397484419174576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>285.448704596419</v>
+        <v>322.8715823396035</v>
       </c>
       <c r="R17">
-        <v>285.448704596419</v>
+        <v>2905.844241056432</v>
       </c>
       <c r="S17">
-        <v>0.02443548700279871</v>
+        <v>0.024140984669781</v>
       </c>
       <c r="T17">
-        <v>0.02443548700279871</v>
+        <v>0.02844892103643889</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>319.6931299613753</v>
+        <v>345.5190986297533</v>
       </c>
       <c r="R18">
-        <v>319.6931299613753</v>
+        <v>3109.67188766778</v>
       </c>
       <c r="S18">
-        <v>0.0273669391251924</v>
+        <v>0.0258343307970783</v>
       </c>
       <c r="T18">
-        <v>0.0273669391251924</v>
+        <v>0.03044444321259698</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>164.4734708582192</v>
+        <v>173.4964272487049</v>
       </c>
       <c r="R19">
-        <v>164.4734708582192</v>
+        <v>1561.467845238344</v>
       </c>
       <c r="S19">
-        <v>0.01407955017747741</v>
+        <v>0.01297226147969669</v>
       </c>
       <c r="T19">
-        <v>0.01407955017747741</v>
+        <v>0.01528714953213534</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>195.6771800601986</v>
+        <v>198.2208089194158</v>
       </c>
       <c r="R20">
-        <v>195.6771800601986</v>
+        <v>1783.987280274742</v>
       </c>
       <c r="S20">
-        <v>0.01675070551420282</v>
+        <v>0.01482089403681857</v>
       </c>
       <c r="T20">
-        <v>0.01675070551420282</v>
+        <v>0.01746566885776927</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>386.118858941902</v>
+        <v>395.372196559667</v>
       </c>
       <c r="R21">
-        <v>386.118858941902</v>
+        <v>2372.233179358002</v>
       </c>
       <c r="S21">
-        <v>0.03305323235763138</v>
+        <v>0.02956182785379128</v>
       </c>
       <c r="T21">
-        <v>0.03305323235763138</v>
+        <v>0.02322473911232104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>529.5237297574945</v>
+        <v>592.4147400074454</v>
       </c>
       <c r="R22">
-        <v>529.5237297574945</v>
+        <v>3554.488440044672</v>
       </c>
       <c r="S22">
-        <v>0.04532923081384017</v>
+        <v>0.04429462343214034</v>
       </c>
       <c r="T22">
-        <v>0.04532923081384017</v>
+        <v>0.03479930531961432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>593.0491041966305</v>
+        <v>633.96910158248</v>
       </c>
       <c r="R23">
-        <v>593.0491041966305</v>
+        <v>3803.81460949488</v>
       </c>
       <c r="S23">
-        <v>0.05076724274544137</v>
+        <v>0.04740162714698043</v>
       </c>
       <c r="T23">
-        <v>0.05076724274544137</v>
+        <v>0.03724026908731717</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>305.1077280527179</v>
+        <v>318.3365971572373</v>
       </c>
       <c r="R24">
-        <v>305.1077280527179</v>
+        <v>1910.019582943424</v>
       </c>
       <c r="S24">
-        <v>0.02611837364554347</v>
+        <v>0.02380190556293648</v>
       </c>
       <c r="T24">
-        <v>0.02611837364554347</v>
+        <v>0.01869955571791232</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>362.9923994939898</v>
+        <v>363.7016554047387</v>
       </c>
       <c r="R25">
-        <v>362.9923994939898</v>
+        <v>2182.209932428433</v>
       </c>
       <c r="S25">
-        <v>0.03107352010054062</v>
+        <v>0.02719383360987356</v>
       </c>
       <c r="T25">
-        <v>0.03107352010054062</v>
+        <v>0.0213643653625492</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>716.2726438212354</v>
+        <v>725.4411036543481</v>
       </c>
       <c r="R26">
-        <v>716.2726438212354</v>
+        <v>2901.764414617393</v>
       </c>
       <c r="S26">
-        <v>0.06131564304451794</v>
+        <v>0.05424095374156589</v>
       </c>
       <c r="T26">
-        <v>0.06131564304451794</v>
+        <v>0.0284089785444888</v>
       </c>
     </row>
   </sheetData>
